--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,10 +114,10 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -135,13 +136,13 @@
         <v>1</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I1" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -187,13 +188,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -213,13 +214,13 @@
         <v>0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -245,7 +246,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +292,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
@@ -323,7 +324,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,13 +344,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -372,7 +373,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>1</v>
@@ -395,13 +396,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,10 +425,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>0</v>
@@ -473,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1</v>
@@ -499,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -580,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>1</v>
@@ -606,10 +607,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -655,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -681,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>1</v>
@@ -707,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>0</v>
@@ -762,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -843,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>0</v>
@@ -889,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1</v>
